--- a/updated_Gantt_chart.xlsx
+++ b/updated_Gantt_chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stella/Desktop/Software_tech/Milestone1_Group44/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D45DEFB-D598-404C-B167-0BBCF30A07E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16594FB6-79BC-7D41-95CE-3232571E8291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="500" windowWidth="37840" windowHeight="19000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2000" yWindow="500" windowWidth="31600" windowHeight="19000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -1086,8 +1086,8 @@
   </sheetPr>
   <dimension ref="B1:BO39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="107" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="30" customHeight="1"/>
@@ -1459,7 +1459,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1">
@@ -1579,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="21">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:67" ht="30" customHeight="1">
@@ -1719,7 +1719,7 @@
         <v>2</v>
       </c>
       <c r="G20" s="21">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1">
@@ -1759,7 +1759,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="21">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="30" customHeight="1">
@@ -1819,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="21">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="30" customHeight="1">
@@ -1839,7 +1839,7 @@
         <v>2</v>
       </c>
       <c r="G26" s="21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1">
